--- a/4050/project/articls.xlsx
+++ b/4050/project/articls.xlsx
@@ -5,18 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="282" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="282" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Subdivision Surface Fitting to a Range of Points</t>
   </si>
@@ -61,6 +63,60 @@
   </si>
   <si>
     <t>http://vixra.org/abs/1406.0060</t>
+  </si>
+  <si>
+    <t>Volume Enclosed by Subdivision Surface with Sharp Creases</t>
+  </si>
+  <si>
+    <t>Catmull-Clark</t>
+  </si>
+  <si>
+    <t>Loop algorithms with sharp creases</t>
+  </si>
+  <si>
+    <t>Applications</t>
+  </si>
+  <si>
+    <t>the design of surfaces with sharp creases to enclose a specific volume</t>
+  </si>
+  <si>
+    <t>the deformation of surfaces subject to volume preservation</t>
+  </si>
+  <si>
+    <t>Article structure</t>
+  </si>
+  <si>
+    <t>Recap the volume formula for subdivision surfaces</t>
+  </si>
+  <si>
+    <t>Elaborate on the implications for facets that are affected by crease subdivision rules</t>
+  </si>
+  <si>
+    <t>Derive the volume contribution for the most relevant local mesh topologies of facets adjacent to creases in a Catmull-Clark, and Loop mesh</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>a closed, orientable mesh</t>
+  </si>
+  <si>
+    <t>determined by a collection of trilinear forms</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>facets</t>
+  </si>
+  <si>
+    <t>f belongs to M</t>
+  </si>
+  <si>
+    <t>(pxi, pyi, pzi)</t>
   </si>
 </sst>
 </file>
@@ -75,6 +131,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -140,7 +197,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -151,6 +208,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -185,6 +250,8 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -198,6 +265,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -206,6 +274,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -214,6 +283,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -247,7 +317,7 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -274,7 +344,164 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="3"/>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
